--- a/TS006-2021-4-filtered-2023-06-15T14_02_57Z.xlsx
+++ b/TS006-2021-4-filtered-2023-06-15T14_02_57Z.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC72A3-B487-438B-8D15-0160866FCE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId5"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1196">
   <si>
     <t>Westminster Parliamentary constituencies Code</t>
   </si>
@@ -3600,22 +3601,19 @@
   </si>
   <si>
     <t>https://www.ons.gov.uk/census/census2021dictionary</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aerial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color/>
       <name val="Aerial"/>
       <family val="2"/>
     </font>
@@ -3640,135 +3638,140 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
-      <alignment/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3824,8 +3827,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -3847,8 +3850,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -3864,8 +3867,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3902,28 +3905,30 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H574"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="46"/>
-    <col customWidth="true" max="2" min="2" width="41"/>
-    <col customWidth="true" max="3" min="3" width="13"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3942,10 +3947,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2100.3</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>2100.3000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3956,7 +3961,7 @@
         <v>1764.2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3967,7 +3972,7 @@
         <v>1981.6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3978,7 +3983,7 @@
         <v>724.6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3989,7 +3994,7 @@
         <v>161.6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4000,7 +4005,7 @@
         <v>970.1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4011,7 +4016,7 @@
         <v>252.8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4021,8 +4026,11 @@
       <c r="C9">
         <v>3452.6</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="H9" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4041,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4044,7 +4052,7 @@
         <v>294.3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>7138.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>1872.2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -4077,7 +4085,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -4088,7 +4096,7 @@
         <v>310.8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>1622.1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4110,7 +4118,7 @@
         <v>2028.2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4121,7 +4129,7 @@
         <v>226.1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4132,7 +4140,7 @@
         <v>3314.4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>2010.3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4154,7 +4162,7 @@
         <v>11622.1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>595.9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>2690.4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>3258.8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>13684.1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -4209,7 +4217,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>15599.2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4228,10 +4236,10 @@
         <v>56</v>
       </c>
       <c r="C28">
-        <v>129.2</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4242,7 +4250,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4253,7 +4261,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4264,7 +4272,7 @@
         <v>3593.7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>3535.9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>4755.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -4297,7 +4305,7 @@
         <v>6180.7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>6452.9</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -4319,7 +4327,7 @@
         <v>5595.6</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -4327,10 +4335,10 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>4329.9</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>4329.8999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4338,10 +4346,10 @@
         <v>76</v>
       </c>
       <c r="C38">
-        <v>4523.4</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>4523.3999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4352,7 +4360,7 @@
         <v>5010.3</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -4360,10 +4368,10 @@
         <v>80</v>
       </c>
       <c r="C40">
-        <v>5172.1</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>5172.1000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -4385,7 +4393,7 @@
         <v>2835.5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>4577.7</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -4407,7 +4415,7 @@
         <v>3605.6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>4005.3</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4429,7 +4437,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -4437,10 +4445,10 @@
         <v>94</v>
       </c>
       <c r="C47">
-        <v>1212.1</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1212.0999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4451,7 +4459,7 @@
         <v>1797.1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4462,7 +4470,7 @@
         <v>441.6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4473,7 +4481,7 @@
         <v>2812.3</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>3025.4</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -4495,7 +4503,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>3922.9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -4514,10 +4522,10 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>154.8</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -4528,7 +4536,7 @@
         <v>369.6</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -4536,10 +4544,10 @@
         <v>112</v>
       </c>
       <c r="C56">
-        <v>4188.6</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>4188.6000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -4561,7 +4569,7 @@
         <v>1541.1</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -4572,7 +4580,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -4583,7 +4591,7 @@
         <v>2460.4</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -4594,7 +4602,7 @@
         <v>3443.2</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>220.9</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -4616,7 +4624,7 @@
         <v>8185.2</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>6971.2</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>5504.1</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -4646,10 +4654,10 @@
         <v>132</v>
       </c>
       <c r="C66">
-        <v>310.6</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>310.60000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -4671,7 +4679,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -4682,7 +4690,7 @@
         <v>2355.6</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -4693,7 +4701,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>4399.8</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -4715,7 +4723,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -4723,10 +4731,10 @@
         <v>146</v>
       </c>
       <c r="C73">
-        <v>4807.1</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>4807.1000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>8118.8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -4759,7 +4767,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -4770,7 +4778,7 @@
         <v>457.1</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -4781,7 +4789,7 @@
         <v>1564.9</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4792,7 +4800,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -4800,10 +4808,10 @@
         <v>160</v>
       </c>
       <c r="C80">
-        <v>128.3</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>128.30000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -4814,7 +4822,7 @@
         <v>855.1</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -4825,7 +4833,7 @@
         <v>462.4</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>1800.6</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4844,10 +4852,10 @@
         <v>168</v>
       </c>
       <c r="C84">
-        <v>2105.3</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>2105.3000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>233.9</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -4869,7 +4877,7 @@
         <v>334.9</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -4880,7 +4888,7 @@
         <v>11226.1</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>341.8</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -4902,7 +4910,7 @@
         <v>3696.4</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -4913,7 +4921,7 @@
         <v>1274.3</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>455.9</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>418.9</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>4105.8</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>2005.4</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -4968,7 +4976,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -4979,7 +4987,7 @@
         <v>129.5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -4987,10 +4995,10 @@
         <v>194</v>
       </c>
       <c r="C97">
-        <v>611.7</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>611.70000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -5001,7 +5009,7 @@
         <v>1668.8</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>2662.6</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>12282.1</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -5045,7 +5053,7 @@
         <v>2876.3</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>492.4</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -5067,7 +5075,7 @@
         <v>1968.9</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>184.2</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -5089,7 +5097,7 @@
         <v>5038.3</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -5097,10 +5105,10 @@
         <v>214</v>
       </c>
       <c r="C107">
-        <v>606.3</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>606.29999999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>3395.6</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -5122,7 +5130,7 @@
         <v>676.6</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -5133,7 +5141,7 @@
         <v>807.6</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -5144,7 +5152,7 @@
         <v>6167.2</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -5155,7 +5163,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -5163,10 +5171,10 @@
         <v>226</v>
       </c>
       <c r="C113">
-        <v>532.2</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>532.20000000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -5177,7 +5185,7 @@
         <v>693.3</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -5188,7 +5196,7 @@
         <v>284.3</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -5199,7 +5207,7 @@
         <v>2715.5</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -5207,10 +5215,10 @@
         <v>234</v>
       </c>
       <c r="C117">
-        <v>626.2</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>626.20000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>493.1</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -5232,7 +5240,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -5243,7 +5251,7 @@
         <v>233.7</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -5254,7 +5262,7 @@
         <v>4568.5</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>3455.5</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>2634.9</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>838.2</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -5309,7 +5317,7 @@
         <v>4871</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -5317,10 +5325,10 @@
         <v>254</v>
       </c>
       <c r="C127">
-        <v>8348.3</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>8348.2999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -5331,7 +5339,7 @@
         <v>2753.5</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -5342,7 +5350,7 @@
         <v>2826.6</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -5353,7 +5361,7 @@
         <v>3069.1</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -5364,7 +5372,7 @@
         <v>1428.7</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -5372,10 +5380,10 @@
         <v>264</v>
       </c>
       <c r="C132">
-        <v>144.3</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>144.30000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -5386,7 +5394,7 @@
         <v>3420.6</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -5397,7 +5405,7 @@
         <v>3498.5</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -5408,7 +5416,7 @@
         <v>3796.1</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -5419,7 +5427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -5441,7 +5449,7 @@
         <v>901.4</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -5452,7 +5460,7 @@
         <v>405.5</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -5463,7 +5471,7 @@
         <v>1775.8</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>385.2</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -5485,7 +5493,7 @@
         <v>476.6</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>3215.2</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -5518,7 +5526,7 @@
         <v>7680.9</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>7206.7</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -5540,7 +5548,7 @@
         <v>5583.3</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>7528.1</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -5562,7 +5570,7 @@
         <v>693.3</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -5573,7 +5581,7 @@
         <v>335.9</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -5584,7 +5592,7 @@
         <v>8854.9</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -5595,7 +5603,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>444.4</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -5617,7 +5625,7 @@
         <v>1796.8</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -5639,7 +5647,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -5650,7 +5658,7 @@
         <v>1589.7</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -5658,10 +5666,10 @@
         <v>316</v>
       </c>
       <c r="C158">
-        <v>138.3</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -5672,7 +5680,7 @@
         <v>6423.4</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>748.9</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -5694,7 +5702,7 @@
         <v>423.4</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -5705,7 +5713,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -5716,7 +5724,7 @@
         <v>2924.2</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -5727,7 +5735,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>812.8</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -5746,10 +5754,10 @@
         <v>332</v>
       </c>
       <c r="C166">
-        <v>2159.3</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>2159.3000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -5760,7 +5768,7 @@
         <v>1585.1</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -5771,7 +5779,7 @@
         <v>5074.3</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -5782,7 +5790,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>339</v>
       </c>
@@ -5793,7 +5801,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -5804,7 +5812,7 @@
         <v>1584.1</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>343</v>
       </c>
@@ -5815,7 +5823,7 @@
         <v>261.5</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -5826,7 +5834,7 @@
         <v>4838.7</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>347</v>
       </c>
@@ -5837,7 +5845,7 @@
         <v>1316.1</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -5848,7 +5856,7 @@
         <v>6054.5</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>351</v>
       </c>
@@ -5859,7 +5867,7 @@
         <v>265.5</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>156.9</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -5881,7 +5889,7 @@
         <v>509.1</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -5889,10 +5897,10 @@
         <v>358</v>
       </c>
       <c r="C179">
-        <v>81.4</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>359</v>
       </c>
@@ -5903,7 +5911,7 @@
         <v>1985.8</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -5914,7 +5922,7 @@
         <v>3725.5</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>363</v>
       </c>
@@ -5925,7 +5933,7 @@
         <v>2482.9</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -5936,7 +5944,7 @@
         <v>3367.1</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>367</v>
       </c>
@@ -5947,7 +5955,7 @@
         <v>3257.7</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -5958,7 +5966,7 @@
         <v>2646.4</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>371</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>164.5</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -5977,10 +5985,10 @@
         <v>374</v>
       </c>
       <c r="C187">
-        <v>1079.9</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>1079.9000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>375</v>
       </c>
@@ -5991,7 +5999,7 @@
         <v>3062.5</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -5999,10 +6007,10 @@
         <v>378</v>
       </c>
       <c r="C189">
-        <v>572.2</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>572.20000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>379</v>
       </c>
@@ -6013,7 +6021,7 @@
         <v>8080.8</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -6021,10 +6029,10 @@
         <v>382</v>
       </c>
       <c r="C191">
-        <v>590.3</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>590.29999999999995</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -6035,7 +6043,7 @@
         <v>14812.2</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>385</v>
       </c>
@@ -6046,7 +6054,7 @@
         <v>12514.7</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>387</v>
       </c>
@@ -6057,7 +6065,7 @@
         <v>3110.7</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>389</v>
       </c>
@@ -6068,7 +6076,7 @@
         <v>1803.5</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>391</v>
       </c>
@@ -6079,7 +6087,7 @@
         <v>209.5</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>393</v>
       </c>
@@ -6090,7 +6098,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>395</v>
       </c>
@@ -6098,10 +6106,10 @@
         <v>396</v>
       </c>
       <c r="C198">
-        <v>10448.2</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>10448.200000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>397</v>
       </c>
@@ -6112,7 +6120,7 @@
         <v>10093.1</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -6123,7 +6131,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -6134,7 +6142,7 @@
         <v>1309.8</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -6145,7 +6153,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>405</v>
       </c>
@@ -6156,7 +6164,7 @@
         <v>4689.8</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -6167,7 +6175,7 @@
         <v>6550.4</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>409</v>
       </c>
@@ -6178,7 +6186,7 @@
         <v>985.3</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>411</v>
       </c>
@@ -6189,7 +6197,7 @@
         <v>245.4</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>413</v>
       </c>
@@ -6197,10 +6205,10 @@
         <v>414</v>
       </c>
       <c r="C207">
-        <v>617.3</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>617.29999999999995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>415</v>
       </c>
@@ -6211,7 +6219,7 @@
         <v>1996.5</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>417</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>2806.6</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>419</v>
       </c>
@@ -6233,7 +6241,7 @@
         <v>1378.6</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -6244,7 +6252,7 @@
         <v>1030.8</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>423</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>668.3</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>425</v>
       </c>
@@ -6263,10 +6271,10 @@
         <v>426</v>
       </c>
       <c r="C213">
-        <v>4651.6</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>4651.6000000000004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>427</v>
       </c>
@@ -6274,10 +6282,10 @@
         <v>428</v>
       </c>
       <c r="C214">
-        <v>151.7</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>151.69999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>429</v>
       </c>
@@ -6285,10 +6293,10 @@
         <v>430</v>
       </c>
       <c r="C215">
-        <v>134.7</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -6299,7 +6307,7 @@
         <v>734.8</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>1066.2</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -6321,7 +6329,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -6332,7 +6340,7 @@
         <v>1507.3</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -6343,7 +6351,7 @@
         <v>168.7</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>441</v>
       </c>
@@ -6354,7 +6362,7 @@
         <v>404.5</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>443</v>
       </c>
@@ -6365,7 +6373,7 @@
         <v>9603.6</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -6376,7 +6384,7 @@
         <v>1953.9</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>447</v>
       </c>
@@ -6387,7 +6395,7 @@
         <v>7573.3</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>449</v>
       </c>
@@ -6398,7 +6406,7 @@
         <v>342.7</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>451</v>
       </c>
@@ -6409,7 +6417,7 @@
         <v>1363.2</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>453</v>
       </c>
@@ -6420,7 +6428,7 @@
         <v>4240.7</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>455</v>
       </c>
@@ -6431,7 +6439,7 @@
         <v>2039.2</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>457</v>
       </c>
@@ -6442,7 +6450,7 @@
         <v>372.9</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>459</v>
       </c>
@@ -6450,10 +6458,10 @@
         <v>460</v>
       </c>
       <c r="C230">
-        <v>1041.6</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>1041.5999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>461</v>
       </c>
@@ -6464,7 +6472,7 @@
         <v>3974.6</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>463</v>
       </c>
@@ -6475,7 +6483,7 @@
         <v>9407</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>465</v>
       </c>
@@ -6486,7 +6494,7 @@
         <v>3643.4</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -6497,7 +6505,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -6508,7 +6516,7 @@
         <v>14874.8</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -6519,7 +6527,7 @@
         <v>14283.2</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -6530,7 +6538,7 @@
         <v>1774.5</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -6541,7 +6549,7 @@
         <v>604.4</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>477</v>
       </c>
@@ -6549,10 +6557,10 @@
         <v>478</v>
       </c>
       <c r="C239">
-        <v>148.8</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>479</v>
       </c>
@@ -6563,7 +6571,7 @@
         <v>11930</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>481</v>
       </c>
@@ -6574,7 +6582,7 @@
         <v>453.2</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -6582,10 +6590,10 @@
         <v>484</v>
       </c>
       <c r="C242">
-        <v>4376.6</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>4376.6000000000004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>485</v>
       </c>
@@ -6596,7 +6604,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>487</v>
       </c>
@@ -6607,7 +6615,7 @@
         <v>4074.7</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>489</v>
       </c>
@@ -6618,7 +6626,7 @@
         <v>3803.9</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>491</v>
       </c>
@@ -6626,10 +6634,10 @@
         <v>492</v>
       </c>
       <c r="C246">
-        <v>2119.2</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>2119.1999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>493</v>
       </c>
@@ -6640,7 +6648,7 @@
         <v>2055.5</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>495</v>
       </c>
@@ -6651,7 +6659,7 @@
         <v>206.6</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>497</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>3708.6</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>499</v>
       </c>
@@ -6673,7 +6681,7 @@
         <v>3113.9</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>2435.9</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>503</v>
       </c>
@@ -6695,7 +6703,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>505</v>
       </c>
@@ -6706,7 +6714,7 @@
         <v>3274.9</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>507</v>
       </c>
@@ -6717,7 +6725,7 @@
         <v>5459.8</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>509</v>
       </c>
@@ -6728,7 +6736,7 @@
         <v>6054.5</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -6739,7 +6747,7 @@
         <v>3919.8</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>513</v>
       </c>
@@ -6750,7 +6758,7 @@
         <v>1627.1</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>515</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>517</v>
       </c>
@@ -6772,7 +6780,7 @@
         <v>7388.9</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>519</v>
       </c>
@@ -6783,7 +6791,7 @@
         <v>7048.8</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>521</v>
       </c>
@@ -6794,7 +6802,7 @@
         <v>10630.3</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>523</v>
       </c>
@@ -6805,7 +6813,7 @@
         <v>7031.4</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>525</v>
       </c>
@@ -6816,7 +6824,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>527</v>
       </c>
@@ -6827,7 +6835,7 @@
         <v>1836.8</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>529</v>
       </c>
@@ -6835,10 +6843,10 @@
         <v>530</v>
       </c>
       <c r="C265">
-        <v>5205.9</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>5205.8999999999996</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>531</v>
       </c>
@@ -6846,10 +6854,10 @@
         <v>532</v>
       </c>
       <c r="C266">
-        <v>4720.9</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>4720.8999999999996</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>533</v>
       </c>
@@ -6860,7 +6868,7 @@
         <v>5391.6</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>535</v>
       </c>
@@ -6868,10 +6876,10 @@
         <v>536</v>
       </c>
       <c r="C268">
-        <v>4596.6</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>4596.6000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>537</v>
       </c>
@@ -6882,7 +6890,7 @@
         <v>835.9</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>539</v>
       </c>
@@ -6890,10 +6898,10 @@
         <v>540</v>
       </c>
       <c r="C270">
-        <v>73.1</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>541</v>
       </c>
@@ -6904,7 +6912,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>543</v>
       </c>
@@ -6915,7 +6923,7 @@
         <v>5789.2</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>545</v>
       </c>
@@ -6923,10 +6931,10 @@
         <v>546</v>
       </c>
       <c r="C273">
-        <v>2213.8</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>2213.8000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>547</v>
       </c>
@@ -6937,7 +6945,7 @@
         <v>316.7</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>549</v>
       </c>
@@ -6948,7 +6956,7 @@
         <v>588.5</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>551</v>
       </c>
@@ -6959,7 +6967,7 @@
         <v>505.9</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>553</v>
       </c>
@@ -6970,7 +6978,7 @@
         <v>1784.6</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>555</v>
       </c>
@@ -6981,7 +6989,7 @@
         <v>253.8</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>557</v>
       </c>
@@ -6992,7 +7000,7 @@
         <v>5491.1</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>559</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>6957.5</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>561</v>
       </c>
@@ -7011,10 +7019,10 @@
         <v>562</v>
       </c>
       <c r="C281">
-        <v>5191.6</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>5191.6000000000004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>563</v>
       </c>
@@ -7025,7 +7033,7 @@
         <v>1440.5</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>565</v>
       </c>
@@ -7036,7 +7044,7 @@
         <v>244.1</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>567</v>
       </c>
@@ -7047,7 +7055,7 @@
         <v>787.3</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>569</v>
       </c>
@@ -7055,10 +7063,10 @@
         <v>570</v>
       </c>
       <c r="C285">
-        <v>268.9</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>268.89999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>571</v>
       </c>
@@ -7069,7 +7077,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>573</v>
       </c>
@@ -7080,7 +7088,7 @@
         <v>480.1</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>575</v>
       </c>
@@ -7091,7 +7099,7 @@
         <v>146.5</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>577</v>
       </c>
@@ -7099,10 +7107,10 @@
         <v>578</v>
       </c>
       <c r="C289">
-        <v>614.8</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>614.79999999999995</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>579</v>
       </c>
@@ -7113,7 +7121,7 @@
         <v>244.4</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>581</v>
       </c>
@@ -7124,7 +7132,7 @@
         <v>3331.5</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>583</v>
       </c>
@@ -7135,7 +7143,7 @@
         <v>486.8</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>585</v>
       </c>
@@ -7143,10 +7151,10 @@
         <v>586</v>
       </c>
       <c r="C293">
-        <v>611.7</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>611.70000000000005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>587</v>
       </c>
@@ -7157,7 +7165,7 @@
         <v>1842.5</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>589</v>
       </c>
@@ -7168,7 +7176,7 @@
         <v>6931.2</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>591</v>
       </c>
@@ -7176,10 +7184,10 @@
         <v>592</v>
       </c>
       <c r="C296">
-        <v>261.6</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>261.60000000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>593</v>
       </c>
@@ -7190,7 +7198,7 @@
         <v>365.6</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>595</v>
       </c>
@@ -7201,7 +7209,7 @@
         <v>1524.8</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>597</v>
       </c>
@@ -7212,7 +7220,7 @@
         <v>229.3</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>599</v>
       </c>
@@ -7223,7 +7231,7 @@
         <v>238.6</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>601</v>
       </c>
@@ -7231,10 +7239,10 @@
         <v>602</v>
       </c>
       <c r="C301">
-        <v>149.3</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>149.30000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>603</v>
       </c>
@@ -7245,7 +7253,7 @@
         <v>190.1</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>605</v>
       </c>
@@ -7256,7 +7264,7 @@
         <v>4358.3</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>607</v>
       </c>
@@ -7264,10 +7272,10 @@
         <v>608</v>
       </c>
       <c r="C304">
-        <v>5175.9</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>5175.8999999999996</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>609</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>611</v>
       </c>
@@ -7286,10 +7294,10 @@
         <v>612</v>
       </c>
       <c r="C306">
-        <v>1093.4</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>1093.4000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>613</v>
       </c>
@@ -7300,7 +7308,7 @@
         <v>459.5</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>615</v>
       </c>
@@ -7311,7 +7319,7 @@
         <v>1368.9</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>617</v>
       </c>
@@ -7322,7 +7330,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>619</v>
       </c>
@@ -7333,7 +7341,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>621</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>623</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>838.9</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>625</v>
       </c>
@@ -7366,7 +7374,7 @@
         <v>228.2</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>627</v>
       </c>
@@ -7377,7 +7385,7 @@
         <v>166.9</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>629</v>
       </c>
@@ -7388,7 +7396,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>631</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>263.8</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>633</v>
       </c>
@@ -7410,7 +7418,7 @@
         <v>204.6</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>635</v>
       </c>
@@ -7418,10 +7426,10 @@
         <v>636</v>
       </c>
       <c r="C318">
-        <v>310.1</v>
-      </c>
-    </row>
-    <row r="319">
+        <v>310.10000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>637</v>
       </c>
@@ -7432,7 +7440,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>639</v>
       </c>
@@ -7443,7 +7451,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>641</v>
       </c>
@@ -7454,7 +7462,7 @@
         <v>117.8</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>643</v>
       </c>
@@ -7465,7 +7473,7 @@
         <v>452.3</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>645</v>
       </c>
@@ -7473,10 +7481,10 @@
         <v>646</v>
       </c>
       <c r="C323">
-        <v>1140.1</v>
-      </c>
-    </row>
-    <row r="324">
+        <v>1140.0999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>647</v>
       </c>
@@ -7487,7 +7495,7 @@
         <v>726.6</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>649</v>
       </c>
@@ -7498,7 +7506,7 @@
         <v>2438.9</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>651</v>
       </c>
@@ -7509,7 +7517,7 @@
         <v>351.5</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>653</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>191.5</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>655</v>
       </c>
@@ -7528,10 +7536,10 @@
         <v>656</v>
       </c>
       <c r="C328">
-        <v>134.3</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>134.30000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>657</v>
       </c>
@@ -7542,7 +7550,7 @@
         <v>194.3</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>659</v>
       </c>
@@ -7553,7 +7561,7 @@
         <v>374.8</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>661</v>
       </c>
@@ -7564,7 +7572,7 @@
         <v>125.2</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>663</v>
       </c>
@@ -7572,10 +7580,10 @@
         <v>664</v>
       </c>
       <c r="C332">
-        <v>139.8</v>
-      </c>
-    </row>
-    <row r="333">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>665</v>
       </c>
@@ -7586,7 +7594,7 @@
         <v>4166.8</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>667</v>
       </c>
@@ -7597,7 +7605,7 @@
         <v>3241.9</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>669</v>
       </c>
@@ -7605,10 +7613,10 @@
         <v>670</v>
       </c>
       <c r="C335">
-        <v>2552.2</v>
-      </c>
-    </row>
-    <row r="336">
+        <v>2552.1999999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>671</v>
       </c>
@@ -7619,7 +7627,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>673</v>
       </c>
@@ -7630,7 +7638,7 @@
         <v>5750.3</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>675</v>
       </c>
@@ -7641,7 +7649,7 @@
         <v>4256.8</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>677</v>
       </c>
@@ -7652,7 +7660,7 @@
         <v>3583.6</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>679</v>
       </c>
@@ -7663,7 +7671,7 @@
         <v>1198.3</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>681</v>
       </c>
@@ -7674,7 +7682,7 @@
         <v>3653.5</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>683</v>
       </c>
@@ -7685,7 +7693,7 @@
         <v>1040.2</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>685</v>
       </c>
@@ -7696,7 +7704,7 @@
         <v>3632.6</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>687</v>
       </c>
@@ -7704,10 +7712,10 @@
         <v>688</v>
       </c>
       <c r="C344">
-        <v>1179.1</v>
-      </c>
-    </row>
-    <row r="345">
+        <v>1179.0999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>689</v>
       </c>
@@ -7715,10 +7723,10 @@
         <v>690</v>
       </c>
       <c r="C345">
-        <v>4295.4</v>
-      </c>
-    </row>
-    <row r="346">
+        <v>4295.3999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>691</v>
       </c>
@@ -7729,7 +7737,7 @@
         <v>845.7</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>693</v>
       </c>
@@ -7737,10 +7745,10 @@
         <v>694</v>
       </c>
       <c r="C347">
-        <v>565.3</v>
-      </c>
-    </row>
-    <row r="348">
+        <v>565.29999999999995</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>695</v>
       </c>
@@ -7751,7 +7759,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>697</v>
       </c>
@@ -7762,7 +7770,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>699</v>
       </c>
@@ -7773,7 +7781,7 @@
         <v>749.3</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>701</v>
       </c>
@@ -7784,7 +7792,7 @@
         <v>2922.3</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>703</v>
       </c>
@@ -7795,7 +7803,7 @@
         <v>5330.1</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>705</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>3205.2</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>707</v>
       </c>
@@ -7817,7 +7825,7 @@
         <v>15778</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>709</v>
       </c>
@@ -7828,7 +7836,7 @@
         <v>3715.6</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>711</v>
       </c>
@@ -7839,7 +7847,7 @@
         <v>8030.5</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>713</v>
       </c>
@@ -7850,7 +7858,7 @@
         <v>3623.1</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>715</v>
       </c>
@@ -7861,7 +7869,7 @@
         <v>1779.6</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>717</v>
       </c>
@@ -7872,7 +7880,7 @@
         <v>7905.4</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>719</v>
       </c>
@@ -7883,7 +7891,7 @@
         <v>909.5</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>721</v>
       </c>
@@ -7894,7 +7902,7 @@
         <v>4375.3</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>723</v>
       </c>
@@ -7905,7 +7913,7 @@
         <v>2209.9</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>725</v>
       </c>
@@ -7913,10 +7921,10 @@
         <v>726</v>
       </c>
       <c r="C363">
-        <v>1203.1</v>
-      </c>
-    </row>
-    <row r="364">
+        <v>1203.0999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>727</v>
       </c>
@@ -7927,7 +7935,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>729</v>
       </c>
@@ -7938,7 +7946,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>731</v>
       </c>
@@ -7946,10 +7954,10 @@
         <v>732</v>
       </c>
       <c r="C366">
-        <v>163.2</v>
-      </c>
-    </row>
-    <row r="367">
+        <v>163.19999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>733</v>
       </c>
@@ -7960,7 +7968,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>735</v>
       </c>
@@ -7971,7 +7979,7 @@
         <v>3270.2</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>737</v>
       </c>
@@ -7982,7 +7990,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>739</v>
       </c>
@@ -7993,7 +8001,7 @@
         <v>783.3</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>741</v>
       </c>
@@ -8004,7 +8012,7 @@
         <v>1138.8</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>743</v>
       </c>
@@ -8015,7 +8023,7 @@
         <v>3626.4</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>745</v>
       </c>
@@ -8026,7 +8034,7 @@
         <v>218.7</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>747</v>
       </c>
@@ -8037,7 +8045,7 @@
         <v>457.2</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>749</v>
       </c>
@@ -8045,10 +8053,10 @@
         <v>750</v>
       </c>
       <c r="C375">
-        <v>593.8</v>
-      </c>
-    </row>
-    <row r="376">
+        <v>593.79999999999995</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>751</v>
       </c>
@@ -8059,7 +8067,7 @@
         <v>2009.5</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>753</v>
       </c>
@@ -8070,7 +8078,7 @@
         <v>439.8</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>755</v>
       </c>
@@ -8081,7 +8089,7 @@
         <v>2025.8</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>757</v>
       </c>
@@ -8092,7 +8100,7 @@
         <v>1183.3</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>759</v>
       </c>
@@ -8103,7 +8111,7 @@
         <v>328.8</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>761</v>
       </c>
@@ -8114,7 +8122,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>763</v>
       </c>
@@ -8122,10 +8130,10 @@
         <v>764</v>
       </c>
       <c r="C382">
-        <v>148.2</v>
-      </c>
-    </row>
-    <row r="383">
+        <v>148.19999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>765</v>
       </c>
@@ -8136,7 +8144,7 @@
         <v>4070.7</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>767</v>
       </c>
@@ -8144,10 +8152,10 @@
         <v>768</v>
       </c>
       <c r="C384">
-        <v>163.7</v>
-      </c>
-    </row>
-    <row r="385">
+        <v>163.69999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>769</v>
       </c>
@@ -8158,7 +8166,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>771</v>
       </c>
@@ -8169,7 +8177,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>773</v>
       </c>
@@ -8180,7 +8188,7 @@
         <v>233.5</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>775</v>
       </c>
@@ -8191,7 +8199,7 @@
         <v>1009.4</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>777</v>
       </c>
@@ -8202,7 +8210,7 @@
         <v>125.2</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>779</v>
       </c>
@@ -8213,7 +8221,7 @@
         <v>391.2</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>781</v>
       </c>
@@ -8224,7 +8232,7 @@
         <v>5843.5</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>783</v>
       </c>
@@ -8235,7 +8243,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>785</v>
       </c>
@@ -8246,7 +8254,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>787</v>
       </c>
@@ -8257,7 +8265,7 @@
         <v>655.9</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>789</v>
       </c>
@@ -8268,7 +8276,7 @@
         <v>3686.5</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>791</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>339.1</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>793</v>
       </c>
@@ -8290,7 +8298,7 @@
         <v>1025.3</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>795</v>
       </c>
@@ -8301,7 +8309,7 @@
         <v>182.3</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>797</v>
       </c>
@@ -8309,10 +8317,10 @@
         <v>798</v>
       </c>
       <c r="C399">
-        <v>514.8</v>
-      </c>
-    </row>
-    <row r="400">
+        <v>514.79999999999995</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>799</v>
       </c>
@@ -8323,7 +8331,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>801</v>
       </c>
@@ -8334,7 +8342,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>803</v>
       </c>
@@ -8345,7 +8353,7 @@
         <v>5650.1</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>805</v>
       </c>
@@ -8356,7 +8364,7 @@
         <v>3106.6</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>807</v>
       </c>
@@ -8367,7 +8375,7 @@
         <v>117.2</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>809</v>
       </c>
@@ -8378,7 +8386,7 @@
         <v>783.4</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>811</v>
       </c>
@@ -8389,7 +8397,7 @@
         <v>197.9</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>813</v>
       </c>
@@ -8397,10 +8405,10 @@
         <v>814</v>
       </c>
       <c r="C407">
-        <v>317.1</v>
-      </c>
-    </row>
-    <row r="408">
+        <v>317.10000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>815</v>
       </c>
@@ -8411,7 +8419,7 @@
         <v>252.7</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>817</v>
       </c>
@@ -8422,7 +8430,7 @@
         <v>158.4</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>819</v>
       </c>
@@ -8433,7 +8441,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>821</v>
       </c>
@@ -8444,7 +8452,7 @@
         <v>140.6</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>823</v>
       </c>
@@ -8455,7 +8463,7 @@
         <v>387.9</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>825</v>
       </c>
@@ -8463,10 +8471,10 @@
         <v>826</v>
       </c>
       <c r="C413">
-        <v>141.8</v>
-      </c>
-    </row>
-    <row r="414">
+        <v>141.80000000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>827</v>
       </c>
@@ -8477,7 +8485,7 @@
         <v>207.3</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>829</v>
       </c>
@@ -8488,7 +8496,7 @@
         <v>504.3</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>831</v>
       </c>
@@ -8499,7 +8507,7 @@
         <v>3267.5</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>833</v>
       </c>
@@ -8510,7 +8518,7 @@
         <v>348.4</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>835</v>
       </c>
@@ -8518,10 +8526,10 @@
         <v>836</v>
       </c>
       <c r="C418">
-        <v>148.3</v>
-      </c>
-    </row>
-    <row r="419">
+        <v>148.30000000000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>837</v>
       </c>
@@ -8532,7 +8540,7 @@
         <v>906.5</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>839</v>
       </c>
@@ -8543,7 +8551,7 @@
         <v>777.7</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>841</v>
       </c>
@@ -8554,7 +8562,7 @@
         <v>908.2</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>843</v>
       </c>
@@ -8565,7 +8573,7 @@
         <v>252.7</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>845</v>
       </c>
@@ -8576,7 +8584,7 @@
         <v>636.6</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>847</v>
       </c>
@@ -8587,7 +8595,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>849</v>
       </c>
@@ -8598,7 +8606,7 @@
         <v>422.5</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>851</v>
       </c>
@@ -8609,7 +8617,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>853</v>
       </c>
@@ -8620,7 +8628,7 @@
         <v>5408.8</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>855</v>
       </c>
@@ -8628,10 +8636,10 @@
         <v>856</v>
       </c>
       <c r="C428">
-        <v>5018.6</v>
-      </c>
-    </row>
-    <row r="429">
+        <v>5018.6000000000004</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>857</v>
       </c>
@@ -8639,10 +8647,10 @@
         <v>858</v>
       </c>
       <c r="C429">
-        <v>4677.1</v>
-      </c>
-    </row>
-    <row r="430">
+        <v>4677.1000000000004</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>859</v>
       </c>
@@ -8653,7 +8661,7 @@
         <v>1992.9</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>861</v>
       </c>
@@ -8664,7 +8672,7 @@
         <v>2293.6</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>863</v>
       </c>
@@ -8675,7 +8683,7 @@
         <v>1544.3</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>865</v>
       </c>
@@ -8683,10 +8691,10 @@
         <v>866</v>
       </c>
       <c r="C433">
-        <v>271.6</v>
-      </c>
-    </row>
-    <row r="434">
+        <v>271.60000000000002</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>867</v>
       </c>
@@ -8697,7 +8705,7 @@
         <v>1195.2</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>869</v>
       </c>
@@ -8708,7 +8716,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>871</v>
       </c>
@@ -8719,7 +8727,7 @@
         <v>160.9</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>873</v>
       </c>
@@ -8730,7 +8738,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>875</v>
       </c>
@@ -8738,10 +8746,10 @@
         <v>876</v>
       </c>
       <c r="C438">
-        <v>149.2</v>
-      </c>
-    </row>
-    <row r="439">
+        <v>149.19999999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>877</v>
       </c>
@@ -8752,7 +8760,7 @@
         <v>1539.7</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>879</v>
       </c>
@@ -8763,7 +8771,7 @@
         <v>1576.7</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>881</v>
       </c>
@@ -8774,7 +8782,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>883</v>
       </c>
@@ -8785,7 +8793,7 @@
         <v>771.3</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>885</v>
       </c>
@@ -8796,7 +8804,7 @@
         <v>1228.3</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>887</v>
       </c>
@@ -8807,7 +8815,7 @@
         <v>2912.6</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>889</v>
       </c>
@@ -8818,7 +8826,7 @@
         <v>2358.6</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>891</v>
       </c>
@@ -8829,7 +8837,7 @@
         <v>2762.4</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>893</v>
       </c>
@@ -8837,10 +8845,10 @@
         <v>894</v>
       </c>
       <c r="C447">
-        <v>139.3</v>
-      </c>
-    </row>
-    <row r="448">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>895</v>
       </c>
@@ -8851,7 +8859,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>897</v>
       </c>
@@ -8862,7 +8870,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>899</v>
       </c>
@@ -8873,7 +8881,7 @@
         <v>11347</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>901</v>
       </c>
@@ -8881,10 +8889,10 @@
         <v>902</v>
       </c>
       <c r="C451">
-        <v>2174.3</v>
-      </c>
-    </row>
-    <row r="452">
+        <v>2174.3000000000002</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>903</v>
       </c>
@@ -8895,7 +8903,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>905</v>
       </c>
@@ -8903,10 +8911,10 @@
         <v>906</v>
       </c>
       <c r="C453">
-        <v>136.8</v>
-      </c>
-    </row>
-    <row r="454">
+        <v>136.80000000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>907</v>
       </c>
@@ -8917,7 +8925,7 @@
         <v>3357.1</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>909</v>
       </c>
@@ -8928,7 +8936,7 @@
         <v>1025.7</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>911</v>
       </c>
@@ -8939,7 +8947,7 @@
         <v>5719.2</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>913</v>
       </c>
@@ -8950,7 +8958,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>915</v>
       </c>
@@ -8961,7 +8969,7 @@
         <v>545.1</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>917</v>
       </c>
@@ -8969,10 +8977,10 @@
         <v>918</v>
       </c>
       <c r="C459">
-        <v>270.1</v>
-      </c>
-    </row>
-    <row r="460">
+        <v>270.10000000000002</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>919</v>
       </c>
@@ -8983,7 +8991,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>921</v>
       </c>
@@ -8994,7 +9002,7 @@
         <v>2017.1</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>923</v>
       </c>
@@ -9005,7 +9013,7 @@
         <v>302.5</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>925</v>
       </c>
@@ -9016,7 +9024,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>927</v>
       </c>
@@ -9027,7 +9035,7 @@
         <v>295.5</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>929</v>
       </c>
@@ -9038,7 +9046,7 @@
         <v>47.6</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>931</v>
       </c>
@@ -9049,7 +9057,7 @@
         <v>248.7</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>933</v>
       </c>
@@ -9060,7 +9068,7 @@
         <v>1932.1</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>935</v>
       </c>
@@ -9071,7 +9079,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>937</v>
       </c>
@@ -9082,7 +9090,7 @@
         <v>358.5</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>939</v>
       </c>
@@ -9090,10 +9098,10 @@
         <v>940</v>
       </c>
       <c r="C470">
-        <v>9548.2</v>
-      </c>
-    </row>
-    <row r="471">
+        <v>9548.2000000000007</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>941</v>
       </c>
@@ -9104,7 +9112,7 @@
         <v>2878.3</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>943</v>
       </c>
@@ -9115,7 +9123,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
         <v>945</v>
       </c>
@@ -9123,10 +9131,10 @@
         <v>946</v>
       </c>
       <c r="C473">
-        <v>154.7</v>
-      </c>
-    </row>
-    <row r="474">
+        <v>154.69999999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
         <v>947</v>
       </c>
@@ -9137,7 +9145,7 @@
         <v>10615.9</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
         <v>949</v>
       </c>
@@ -9148,7 +9156,7 @@
         <v>223.8</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
         <v>951</v>
       </c>
@@ -9159,7 +9167,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
         <v>953</v>
       </c>
@@ -9170,7 +9178,7 @@
         <v>4039.2</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
         <v>955</v>
       </c>
@@ -9181,7 +9189,7 @@
         <v>2654.9</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
         <v>957</v>
       </c>
@@ -9192,7 +9200,7 @@
         <v>3735.4</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
         <v>959</v>
       </c>
@@ -9203,7 +9211,7 @@
         <v>14236.9</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>961</v>
       </c>
@@ -9214,7 +9222,7 @@
         <v>1295.5</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>963</v>
       </c>
@@ -9225,7 +9233,7 @@
         <v>3798.1</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>965</v>
       </c>
@@ -9236,7 +9244,7 @@
         <v>3731.3</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>967</v>
       </c>
@@ -9247,7 +9255,7 @@
         <v>3209.4</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>969</v>
       </c>
@@ -9258,7 +9266,7 @@
         <v>7565.5</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>971</v>
       </c>
@@ -9266,10 +9274,10 @@
         <v>972</v>
       </c>
       <c r="C486">
-        <v>608.8</v>
-      </c>
-    </row>
-    <row r="487">
+        <v>608.79999999999995</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>973</v>
       </c>
@@ -9280,7 +9288,7 @@
         <v>224.7</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>975</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>5337.4</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>977</v>
       </c>
@@ -9299,10 +9307,10 @@
         <v>978</v>
       </c>
       <c r="C489">
-        <v>1060.6</v>
-      </c>
-    </row>
-    <row r="490">
+        <v>1060.5999999999999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>979</v>
       </c>
@@ -9313,7 +9321,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>981</v>
       </c>
@@ -9321,10 +9329,10 @@
         <v>982</v>
       </c>
       <c r="C491">
-        <v>1175.6</v>
-      </c>
-    </row>
-    <row r="492">
+        <v>1175.5999999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>983</v>
       </c>
@@ -9335,7 +9343,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>985</v>
       </c>
@@ -9346,7 +9354,7 @@
         <v>3476.7</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>987</v>
       </c>
@@ -9357,7 +9365,7 @@
         <v>417.9</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>989</v>
       </c>
@@ -9368,7 +9376,7 @@
         <v>191.3</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>991</v>
       </c>
@@ -9379,7 +9387,7 @@
         <v>558.9</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>993</v>
       </c>
@@ -9390,7 +9398,7 @@
         <v>699.9</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>995</v>
       </c>
@@ -9401,7 +9409,7 @@
         <v>193.4</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>997</v>
       </c>
@@ -9412,7 +9420,7 @@
         <v>1000.7</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>999</v>
       </c>
@@ -9423,7 +9431,7 @@
         <v>1114.3</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>1001</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>3465.1</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>1003</v>
       </c>
@@ -9445,7 +9453,7 @@
         <v>3687.4</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>1005</v>
       </c>
@@ -9456,7 +9464,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>1007</v>
       </c>
@@ -9467,7 +9475,7 @@
         <v>10614.9</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>1009</v>
       </c>
@@ -9478,7 +9486,7 @@
         <v>382.8</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>1011</v>
       </c>
@@ -9489,7 +9497,7 @@
         <v>149.4</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>1013</v>
       </c>
@@ -9497,10 +9505,10 @@
         <v>1014</v>
       </c>
       <c r="C507">
-        <v>139.3</v>
-      </c>
-    </row>
-    <row r="508">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>1015</v>
       </c>
@@ -9511,7 +9519,7 @@
         <v>13991.2</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>1017</v>
       </c>
@@ -9522,7 +9530,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>1019</v>
       </c>
@@ -9533,7 +9541,7 @@
         <v>779.6</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>1021</v>
       </c>
@@ -9544,7 +9552,7 @@
         <v>1733.5</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>1023</v>
       </c>
@@ -9552,10 +9560,10 @@
         <v>1024</v>
       </c>
       <c r="C512">
-        <v>4778.6</v>
-      </c>
-    </row>
-    <row r="513">
+        <v>4778.6000000000004</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
         <v>1025</v>
       </c>
@@ -9566,7 +9574,7 @@
         <v>314.8</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>1027</v>
       </c>
@@ -9577,7 +9585,7 @@
         <v>747.2</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
         <v>1029</v>
       </c>
@@ -9588,7 +9596,7 @@
         <v>1127.2</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
         <v>1031</v>
       </c>
@@ -9599,7 +9607,7 @@
         <v>1431.6</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
         <v>1033</v>
       </c>
@@ -9610,7 +9618,7 @@
         <v>260.7</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
         <v>1035</v>
       </c>
@@ -9621,7 +9629,7 @@
         <v>159.9</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
         <v>1037</v>
       </c>
@@ -9632,7 +9640,7 @@
         <v>1127.5</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:3">
       <c r="A520" t="s">
         <v>1039</v>
       </c>
@@ -9643,7 +9651,7 @@
         <v>768.9</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:3">
       <c r="A521" t="s">
         <v>1041</v>
       </c>
@@ -9654,7 +9662,7 @@
         <v>3741.6</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:3">
       <c r="A522" t="s">
         <v>1043</v>
       </c>
@@ -9665,7 +9673,7 @@
         <v>3915.8</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
         <v>1045</v>
       </c>
@@ -9676,7 +9684,7 @@
         <v>3783.8</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:3">
       <c r="A524" t="s">
         <v>1047</v>
       </c>
@@ -9687,7 +9695,7 @@
         <v>3121.3</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:3">
       <c r="A525" t="s">
         <v>1049</v>
       </c>
@@ -9698,7 +9706,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:3">
       <c r="A526" t="s">
         <v>1051</v>
       </c>
@@ -9709,7 +9717,7 @@
         <v>1806.2</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
         <v>1053</v>
       </c>
@@ -9720,7 +9728,7 @@
         <v>3350.7</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
         <v>1055</v>
       </c>
@@ -9731,7 +9739,7 @@
         <v>822.1</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
         <v>1057</v>
       </c>
@@ -9742,7 +9750,7 @@
         <v>364.3</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:3">
       <c r="A530" t="s">
         <v>1059</v>
       </c>
@@ -9753,7 +9761,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:3">
       <c r="A531" t="s">
         <v>1061</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>3053.3</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:3">
       <c r="A532" t="s">
         <v>1063</v>
       </c>
@@ -9775,7 +9783,7 @@
         <v>283.8</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:3">
       <c r="A533" t="s">
         <v>1065</v>
       </c>
@@ -9783,10 +9791,10 @@
         <v>1066</v>
       </c>
       <c r="C533">
-        <v>4458.6</v>
-      </c>
-    </row>
-    <row r="534">
+        <v>4458.6000000000004</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
       <c r="A534" t="s">
         <v>1067</v>
       </c>
@@ -9797,7 +9805,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:3">
       <c r="A535" t="s">
         <v>1069</v>
       </c>
@@ -9808,7 +9816,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:3">
       <c r="A536" t="s">
         <v>1071</v>
       </c>
@@ -9819,7 +9827,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:3">
       <c r="A537" t="s">
         <v>1073</v>
       </c>
@@ -9830,7 +9838,7 @@
         <v>543.5</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:3">
       <c r="A538" t="s">
         <v>1075</v>
       </c>
@@ -9841,7 +9849,7 @@
         <v>696.2</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:3">
       <c r="A539" t="s">
         <v>1077</v>
       </c>
@@ -9852,7 +9860,7 @@
         <v>350.5</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:3">
       <c r="A540" t="s">
         <v>1079</v>
       </c>
@@ -9860,10 +9868,10 @@
         <v>1080</v>
       </c>
       <c r="C540">
-        <v>263.6</v>
-      </c>
-    </row>
-    <row r="541">
+        <v>263.60000000000002</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
       <c r="A541" t="s">
         <v>1081</v>
       </c>
@@ -9874,7 +9882,7 @@
         <v>2396.1</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:3">
       <c r="A542" t="s">
         <v>1083</v>
       </c>
@@ -9885,7 +9893,7 @@
         <v>1682.6</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:3">
       <c r="A543" t="s">
         <v>1085</v>
       </c>
@@ -9896,7 +9904,7 @@
         <v>393.5</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:3">
       <c r="A544" t="s">
         <v>1087</v>
       </c>
@@ -9907,7 +9915,7 @@
         <v>5484.5</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:3">
       <c r="A545" t="s">
         <v>1089</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>2117.9</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:3">
       <c r="A546" t="s">
         <v>1091</v>
       </c>
@@ -9929,7 +9937,7 @@
         <v>682.4</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:3">
       <c r="A547" t="s">
         <v>1093</v>
       </c>
@@ -9940,7 +9948,7 @@
         <v>705.9</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:3">
       <c r="A548" t="s">
         <v>1095</v>
       </c>
@@ -9951,7 +9959,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:3">
       <c r="A549" t="s">
         <v>1097</v>
       </c>
@@ -9962,7 +9970,7 @@
         <v>685.5</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:3">
       <c r="A550" t="s">
         <v>1099</v>
       </c>
@@ -9973,7 +9981,7 @@
         <v>966.5</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:3">
       <c r="A551" t="s">
         <v>1101</v>
       </c>
@@ -9984,7 +9992,7 @@
         <v>146.6</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:3">
       <c r="A552" t="s">
         <v>1103</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:3">
       <c r="A553" t="s">
         <v>1105</v>
       </c>
@@ -10003,10 +10011,10 @@
         <v>1106</v>
       </c>
       <c r="C553">
-        <v>80.6</v>
-      </c>
-    </row>
-    <row r="554">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
       <c r="A554" t="s">
         <v>1107</v>
       </c>
@@ -10017,7 +10025,7 @@
         <v>337.4</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:3">
       <c r="A555" t="s">
         <v>1109</v>
       </c>
@@ -10028,7 +10036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:3">
       <c r="A556" t="s">
         <v>1111</v>
       </c>
@@ -10039,7 +10047,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:3">
       <c r="A557" t="s">
         <v>1113</v>
       </c>
@@ -10050,7 +10058,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:3">
       <c r="A558" t="s">
         <v>1115</v>
       </c>
@@ -10061,7 +10069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:3">
       <c r="A559" t="s">
         <v>1117</v>
       </c>
@@ -10072,7 +10080,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:3">
       <c r="A560" t="s">
         <v>1119</v>
       </c>
@@ -10083,7 +10091,7 @@
         <v>76.2</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:3">
       <c r="A561" t="s">
         <v>1121</v>
       </c>
@@ -10094,7 +10102,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:3">
       <c r="A562" t="s">
         <v>1123</v>
       </c>
@@ -10105,7 +10113,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:3">
       <c r="A563" t="s">
         <v>1125</v>
       </c>
@@ -10116,7 +10124,7 @@
         <v>275.2</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:3">
       <c r="A564" t="s">
         <v>1127</v>
       </c>
@@ -10127,7 +10135,7 @@
         <v>387.3</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:3">
       <c r="A565" t="s">
         <v>1129</v>
       </c>
@@ -10138,7 +10146,7 @@
         <v>460.9</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:3">
       <c r="A566" t="s">
         <v>1131</v>
       </c>
@@ -10146,10 +10154,10 @@
         <v>1132</v>
       </c>
       <c r="C566">
-        <v>615.3</v>
-      </c>
-    </row>
-    <row r="567">
+        <v>615.29999999999995</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
       <c r="A567" t="s">
         <v>1133</v>
       </c>
@@ -10160,7 +10168,7 @@
         <v>1012.1</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:3">
       <c r="A568" t="s">
         <v>1135</v>
       </c>
@@ -10171,7 +10179,7 @@
         <v>379.9</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:3">
       <c r="A569" t="s">
         <v>1137</v>
       </c>
@@ -10182,7 +10190,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:3">
       <c r="A570" t="s">
         <v>1139</v>
       </c>
@@ -10193,7 +10201,7 @@
         <v>750.3</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:3">
       <c r="A571" t="s">
         <v>1141</v>
       </c>
@@ -10204,7 +10212,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:3">
       <c r="A572" t="s">
         <v>1143</v>
       </c>
@@ -10215,7 +10223,7 @@
         <v>325.5</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:3">
       <c r="A573" t="s">
         <v>1145</v>
       </c>
@@ -10226,7 +10234,7 @@
         <v>1864.4</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:3">
       <c r="A574" t="s">
         <v>1147</v>
       </c>
@@ -10238,21 +10246,23 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="40"/>
-    <col customWidth="true" max="2" min="2" width="255"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="255" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
         <v>1149</v>
       </c>
@@ -10260,7 +10270,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
         <v>1151</v>
       </c>
@@ -10268,7 +10278,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
         <v>1153</v>
       </c>
@@ -10276,7 +10286,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" t="s">
         <v>1155</v>
       </c>
@@ -10284,7 +10294,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" t="s">
         <v>1157</v>
       </c>
@@ -10292,7 +10302,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" t="s">
         <v>1158</v>
       </c>
@@ -10300,7 +10310,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="14.25">
       <c r="A8" t="s">
         <v>1158</v>
       </c>
@@ -10308,7 +10318,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
         <v>1161</v>
       </c>
@@ -10316,7 +10326,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="14.25">
       <c r="A12" t="s">
         <v>1163</v>
       </c>
@@ -10324,7 +10334,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" t="s">
         <v>1165</v>
       </c>
@@ -10332,7 +10342,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
         <v>1158</v>
       </c>
@@ -10340,7 +10350,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="14.25">
       <c r="A15" t="s">
         <v>1158</v>
       </c>
@@ -10348,7 +10358,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
         <v>1169</v>
       </c>
@@ -10356,7 +10366,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
         <v>1158</v>
       </c>
@@ -10364,7 +10374,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
         <v>1158</v>
       </c>
@@ -10372,7 +10382,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="14.25">
       <c r="A19" t="s">
         <v>1173</v>
       </c>
@@ -10380,7 +10390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="14.25">
       <c r="A20" t="s">
         <v>1174</v>
       </c>
@@ -10388,7 +10398,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="14.25">
       <c r="A21" t="s">
         <v>1176</v>
       </c>
@@ -10396,7 +10406,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" t="s">
         <v>1158</v>
       </c>
@@ -10404,7 +10414,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="14.25">
       <c r="A24" t="s">
         <v>1179</v>
       </c>
@@ -10412,7 +10422,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" t="s">
         <v>1180</v>
       </c>
@@ -10420,7 +10430,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="14.25">
       <c r="A27" t="s">
         <v>1153</v>
       </c>
@@ -10428,7 +10438,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="14.25">
       <c r="A29" t="s">
         <v>1180</v>
       </c>
@@ -10436,7 +10446,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" t="s">
         <v>1153</v>
       </c>
@@ -10444,7 +10454,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" ht="14.25">
       <c r="A32" t="s">
         <v>1180</v>
       </c>
@@ -10452,7 +10462,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="14.25">
       <c r="A33" t="s">
         <v>1153</v>
       </c>
@@ -10460,7 +10470,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="14.25">
       <c r="A35" t="s">
         <v>1180</v>
       </c>
@@ -10468,7 +10478,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="14.25">
       <c r="A36" t="s">
         <v>1153</v>
       </c>
@@ -10476,7 +10486,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" ht="14.25">
       <c r="A38" t="s">
         <v>1187</v>
       </c>
@@ -10484,7 +10494,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" ht="14.25">
       <c r="A40" t="s">
         <v>1149</v>
       </c>
@@ -10492,7 +10502,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" ht="14.25">
       <c r="A41" t="s">
         <v>1151</v>
       </c>
@@ -10500,7 +10510,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" ht="14.25">
       <c r="A42" t="s">
         <v>1190</v>
       </c>
@@ -10508,7 +10518,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44" t="s">
         <v>1187</v>
       </c>
@@ -10516,7 +10526,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="14.25">
       <c r="A46" t="s">
         <v>1149</v>
       </c>
@@ -10524,7 +10534,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="14.25">
       <c r="A47" t="s">
         <v>1151</v>
       </c>
@@ -10532,7 +10542,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="14.25">
       <c r="A48" t="s">
         <v>1190</v>
       </c>
@@ -10541,5 +10551,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TS006-2021-4-filtered-2023-06-15T14_02_57Z.xlsx
+++ b/TS006-2021-4-filtered-2023-06-15T14_02_57Z.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC72A3-B487-438B-8D15-0160866FCE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D615B117-E639-4C52-9202-0F34E000FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1197">
   <si>
     <t>Westminster Parliamentary constituencies Code</t>
   </si>
@@ -3604,6 +3604,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -3915,10 +3918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:J574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4107,7 +4110,7 @@
         <v>1622.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>2028.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4128,8 +4131,11 @@
       <c r="C18">
         <v>226.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="J18" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4140,7 +4146,7 @@
         <v>3314.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4151,7 +4157,7 @@
         <v>2010.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>11622.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>595.9</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4184,7 +4190,7 @@
         <v>2690.4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>3258.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -4206,7 +4212,7 @@
         <v>13684.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -4217,7 +4223,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>15599.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4239,7 +4245,7 @@
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4250,7 +4256,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>3593.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -10256,13 +10262,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="255" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1149</v>
       </c>
@@ -10270,7 +10276,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1151</v>
       </c>
@@ -10278,7 +10284,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1153</v>
       </c>
@@ -10286,7 +10292,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1155</v>
       </c>
@@ -10294,7 +10300,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>1157</v>
       </c>
@@ -10302,7 +10308,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>1158</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>1158</v>
       </c>
@@ -10318,7 +10324,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>1161</v>
       </c>
@@ -10326,7 +10332,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>1163</v>
       </c>
@@ -10334,7 +10340,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>1165</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>1158</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>1158</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>1169</v>
       </c>
@@ -10366,7 +10372,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>1158</v>
       </c>
@@ -10374,7 +10380,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>1158</v>
       </c>
@@ -10382,7 +10388,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>1173</v>
       </c>
@@ -10390,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>1174</v>
       </c>
@@ -10398,7 +10404,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>1176</v>
       </c>
@@ -10406,7 +10412,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>1158</v>
       </c>
@@ -10414,7 +10420,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>1179</v>
       </c>
@@ -10422,7 +10428,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>1180</v>
       </c>
@@ -10430,7 +10436,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>1153</v>
       </c>
@@ -10438,7 +10444,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>1180</v>
       </c>
@@ -10446,7 +10452,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>1153</v>
       </c>
@@ -10454,7 +10460,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>1180</v>
       </c>
@@ -10462,7 +10468,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>1153</v>
       </c>
@@ -10470,7 +10476,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>1180</v>
       </c>
@@ -10478,7 +10484,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>1153</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>1187</v>
       </c>
@@ -10494,7 +10500,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>1149</v>
       </c>
@@ -10502,7 +10508,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>1151</v>
       </c>
@@ -10510,7 +10516,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>1190</v>
       </c>
@@ -10518,7 +10524,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>1187</v>
       </c>
@@ -10526,7 +10532,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>1149</v>
       </c>
@@ -10534,7 +10540,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>1151</v>
       </c>
@@ -10542,7 +10548,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>1190</v>
       </c>
